--- a/biology/Microbiologie/Clathrostoma/Clathrostoma.xlsx
+++ b/biology/Microbiologie/Clathrostoma/Clathrostoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clathrostomatidae
 Clathrostoma, unique représentant de la famille des Clathrostomatidae, est un genre de Ciliés de l’ordre des Peniculida (classe des Oligohymenophorea).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Clathrostoma, est composé du préfixe clathr, « grille », et du suffixe stoma (du grec στόμα, « bouche »), peut-être en référence à la ciliation de leur appareil buccal.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Clathrostoma ont une taille moyenne (80 à 200 μm). Leur forme est ovoïde. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. homogène), avec sutures pré-orales et post-orales. Leur région buccale est placée dans le quart antérieur du corps ; leur appareil buccal possède six polykinétides oraux, chacun étant une file de dikinétides. Des nématodesmes[note 1] buccaux forment un anneau autour du cytopharynx. Le macronoyau est une ellipsoïde allongée. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils se nourrissent de bactéries et de microalgues[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Clathrostoma ont une taille moyenne (80 à 200 μm). Leur forme est ovoïde. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. homogène), avec sutures pré-orales et post-orales. Leur région buccale est placée dans le quart antérieur du corps ; leur appareil buccal possède six polykinétides oraux, chacun étant une file de dikinétides. Des nématodesmes[note 1] buccaux forment un anneau autour du cytopharynx. Le macronoyau est une ellipsoïde allongée. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils se nourrissent de bactéries et de microalgues.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Clathrostoma vivent en eaux douce[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Clathrostoma vivent en eaux douce.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 décembre 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 décembre 2023) :
 Clathrostoma ovum Faure-Fremiet, 1924
 Clathrostoma pseudoparamecium Kahl, 1931
 Clathrostoma salinum
@@ -640,6 +660,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
